--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmazzuchi/Desktop/Truth and Consequences/study4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmazzuchi/Desktop/Truth and Consequences/consequence_truth/study5/full_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D547BB1-3831-6D4B-A8AA-6652C04F5407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3DA556-A392-2D45-A614-F3A5F2AC039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="760" windowWidth="28040" windowHeight="17120" xr2:uid="{425B92E9-0531-8242-95F1-A31043DDFDFB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>bet</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>gainloss</t>
+  </si>
+  <si>
+    <t>stake_bin</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,6 +492,10 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -507,6 +520,9 @@
       </c>
       <c r="I3" s="1">
         <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -536,6 +552,9 @@
       <c r="I4" s="1">
         <v>4</v>
       </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="P4" s="1"/>
     </row>
@@ -563,6 +582,9 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="P5" s="1"/>
@@ -591,6 +613,9 @@
       <c r="I6" s="1">
         <v>6</v>
       </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -618,6 +643,9 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="P7" s="1"/>
@@ -646,6 +674,9 @@
       <c r="I8" s="1">
         <v>4</v>
       </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="P8" s="1"/>
     </row>
@@ -673,6 +704,9 @@
       <c r="I9" s="1">
         <v>4</v>
       </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="P9" s="1"/>
@@ -701,6 +735,9 @@
       <c r="I10" s="1">
         <v>6</v>
       </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="P10" s="1"/>
     </row>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmazzuchi/Desktop/Truth and Consequences/consequence_truth/study5/full_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmazzuchi/Desktop/Truth and Consequences/consequence_truth/study6/experiment_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3DA556-A392-2D45-A614-F3A5F2AC039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E5B43-412F-7D46-9FCB-EEC7C6211B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="760" windowWidth="28040" windowHeight="17120" xr2:uid="{425B92E9-0531-8242-95F1-A31043DDFDFB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" xr2:uid="{425B92E9-0531-8242-95F1-A31043DDFDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>bet</t>
-  </si>
-  <si>
-    <t>outcome</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>cons</t>
   </si>
@@ -56,22 +50,22 @@
     <t>percent</t>
   </si>
   <si>
-    <t>error</t>
+    <t>magnitude</t>
   </si>
   <si>
     <t>valence</t>
   </si>
   <si>
-    <t>gainloss</t>
-  </si>
-  <si>
-    <t>stake_bin</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
 </sst>
 </file>
@@ -454,47 +448,40 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="P2" s="1"/>
     </row>
@@ -505,25 +492,14 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" t="str">
-        <f>IF(F3=0, "neutral", IF(SUM(D3, E3) = 1, "negative", "positive"))</f>
-        <v>neutral</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="P3" s="1"/>
@@ -536,208 +512,131 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G10" si="0">IF(F4=0, "neutral", IF(SUM(D4, E4) = 1, "negative", "positive"))</f>
-        <v>positive</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="K4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A10" si="1">A4 + 3</f>
+        <f t="shared" ref="A5:A10" si="0">A4 + 3</f>
         <v>47</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>neutral</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>negative</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="K6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>neutral</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>negative</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>neutral</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>positive</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="K10" s="1"/>
       <c r="P10" s="1"/>
     </row>
